--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,60 +531,60 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H2">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>23.5834937228278</v>
+        <v>0.2365093333333333</v>
       </c>
       <c r="N2">
-        <v>23.5834937228278</v>
+        <v>0.709528</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.006013533229697845</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.006013533229697844</v>
       </c>
       <c r="Q2">
-        <v>8.362420805230594</v>
+        <v>0.08669628028266667</v>
       </c>
       <c r="R2">
-        <v>8.362420805230594</v>
+        <v>0.7802665225440001</v>
       </c>
       <c r="S2">
-        <v>0.5864066182715325</v>
+        <v>0.003421492239836269</v>
       </c>
       <c r="T2">
-        <v>0.5864066182715325</v>
+        <v>0.003421492239836269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,55 +593,551 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.366566</v>
+      </c>
+      <c r="H3">
+        <v>1.099698</v>
+      </c>
+      <c r="I3">
+        <v>0.5689653834353526</v>
+      </c>
+      <c r="J3">
+        <v>0.5689653834353527</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.075101</v>
+      </c>
+      <c r="N3">
+        <v>0.225303</v>
+      </c>
+      <c r="O3">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P3">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q3">
+        <v>0.027529473166</v>
+      </c>
+      <c r="R3">
+        <v>0.247765258494</v>
+      </c>
+      <c r="S3">
+        <v>0.001086458132888104</v>
+      </c>
+      <c r="T3">
+        <v>0.001086458132888104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.366566</v>
+      </c>
+      <c r="H4">
+        <v>1.099698</v>
+      </c>
+      <c r="I4">
+        <v>0.5689653834353526</v>
+      </c>
+      <c r="J4">
+        <v>0.5689653834353527</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.006358</v>
+      </c>
+      <c r="N4">
+        <v>0.019074</v>
+      </c>
+      <c r="O4">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P4">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q4">
+        <v>0.002330626628</v>
+      </c>
+      <c r="R4">
+        <v>0.020975639652</v>
+      </c>
+      <c r="S4">
+        <v>9.197881265099754E-05</v>
+      </c>
+      <c r="T4">
+        <v>9.197881265099755E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.366566</v>
+      </c>
+      <c r="H5">
+        <v>1.099698</v>
+      </c>
+      <c r="I5">
+        <v>0.5689653834353526</v>
+      </c>
+      <c r="J5">
+        <v>0.5689653834353527</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.302191</v>
+      </c>
+      <c r="O5">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P5">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q5">
+        <v>0.03692431536866667</v>
+      </c>
+      <c r="R5">
+        <v>0.332318838318</v>
+      </c>
+      <c r="S5">
+        <v>0.001457228131163762</v>
+      </c>
+      <c r="T5">
+        <v>0.001457228131163762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.250091304709495</v>
-      </c>
-      <c r="H3">
-        <v>0.250091304709495</v>
-      </c>
-      <c r="I3">
-        <v>0.4135933817284675</v>
-      </c>
-      <c r="J3">
-        <v>0.4135933817284675</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>23.5834937228278</v>
-      </c>
-      <c r="N3">
-        <v>23.5834937228278</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>5.898026714750189</v>
-      </c>
-      <c r="R3">
-        <v>5.898026714750189</v>
-      </c>
-      <c r="S3">
-        <v>0.4135933817284675</v>
-      </c>
-      <c r="T3">
-        <v>0.4135933817284675</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.366566</v>
+      </c>
+      <c r="H6">
+        <v>1.099698</v>
+      </c>
+      <c r="I6">
+        <v>0.5689653834353526</v>
+      </c>
+      <c r="J6">
+        <v>0.5689653834353527</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N6">
+        <v>116.732443</v>
+      </c>
+      <c r="O6">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P6">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q6">
+        <v>14.26338156691267</v>
+      </c>
+      <c r="R6">
+        <v>128.370434102214</v>
+      </c>
+      <c r="S6">
+        <v>0.5629082261188135</v>
+      </c>
+      <c r="T6">
+        <v>0.5629082261188136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2777016666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.833105</v>
+      </c>
+      <c r="I7">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="J7">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.709528</v>
+      </c>
+      <c r="O7">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P7">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q7">
+        <v>0.0656790360488889</v>
+      </c>
+      <c r="R7">
+        <v>0.59111132444</v>
+      </c>
+      <c r="S7">
+        <v>0.002592040989861576</v>
+      </c>
+      <c r="T7">
+        <v>0.002592040989861575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2777016666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.833105</v>
+      </c>
+      <c r="I8">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="J8">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.075101</v>
+      </c>
+      <c r="N8">
+        <v>0.225303</v>
+      </c>
+      <c r="O8">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P8">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q8">
+        <v>0.02085567286833333</v>
+      </c>
+      <c r="R8">
+        <v>0.187701055815</v>
+      </c>
+      <c r="S8">
+        <v>0.0008230747921699813</v>
+      </c>
+      <c r="T8">
+        <v>0.0008230747921699813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2777016666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.833105</v>
+      </c>
+      <c r="I9">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="J9">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.006358</v>
+      </c>
+      <c r="N9">
+        <v>0.019074</v>
+      </c>
+      <c r="O9">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P9">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q9">
+        <v>0.001765627196666667</v>
+      </c>
+      <c r="R9">
+        <v>0.01589064477</v>
+      </c>
+      <c r="S9">
+        <v>6.968095669320969E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.968095669320969E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2777016666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.833105</v>
+      </c>
+      <c r="I10">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="J10">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.302191</v>
+      </c>
+      <c r="O10">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P10">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q10">
+        <v>0.02797298145055556</v>
+      </c>
+      <c r="R10">
+        <v>0.251756833055</v>
+      </c>
+      <c r="S10">
+        <v>0.001103961307752843</v>
+      </c>
+      <c r="T10">
+        <v>0.001103961307752843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2777016666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.833105</v>
+      </c>
+      <c r="I11">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="J11">
+        <v>0.4310346165646473</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N11">
+        <v>116.732443</v>
+      </c>
+      <c r="O11">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P11">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q11">
+        <v>10.80559799172389</v>
+      </c>
+      <c r="R11">
+        <v>97.250381925515</v>
+      </c>
+      <c r="S11">
+        <v>0.4264458585181697</v>
+      </c>
+      <c r="T11">
+        <v>0.4264458585181697</v>
       </c>
     </row>
   </sheetData>
